--- a/collating_results/collated_results_real.xlsx
+++ b/collating_results/collated_results_real.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="62">
   <si>
     <t>real_bcancer_diagnosis_zscore</t>
   </si>
@@ -31,9 +31,15 @@
     <t>CGAN_BASIC_SUPERVISED_CLASSIFIER</t>
   </si>
   <si>
+    <t>CGAN_BASIC_DJ_SUPERVISED_CLASSIFIER</t>
+  </si>
+  <si>
     <t>CGAN_GUMBEL_SUPERVISED_CLASSIFIER</t>
   </si>
   <si>
+    <t>CGAN_GUMBEL_DJ_SUPERVISED_CLASSIFIER</t>
+  </si>
+  <si>
     <t>SSL_GAN</t>
   </si>
   <si>
@@ -52,6 +58,12 @@
     <t>LABEL_PROPAGATION</t>
   </si>
   <si>
+    <t>ASSFSCMR</t>
+  </si>
+  <si>
+    <t>SFAMCAMT</t>
+  </si>
+  <si>
     <t>PARTIAL_SUPERVISED_CLASSIFIER</t>
   </si>
   <si>
@@ -61,7 +73,130 @@
     <t>psup_baseline</t>
   </si>
   <si>
+    <t>4.495 ± 3.108</t>
+  </si>
+  <si>
+    <t>1.898 ± 3.100</t>
+  </si>
+  <si>
+    <t>-2.020 ± 6.853</t>
+  </si>
+  <si>
+    <t>1.920 ± 2.699</t>
+  </si>
+  <si>
+    <t>-0.562 ± 3.493</t>
+  </si>
+  <si>
+    <t>0.154 ± 2.925</t>
+  </si>
+  <si>
+    <t>-5.433 ± 8.600</t>
+  </si>
+  <si>
+    <t>0.289 ± 2.678</t>
+  </si>
+  <si>
+    <t>0.100 ± 1.364</t>
+  </si>
+  <si>
+    <t>0.050 ± 0.979</t>
+  </si>
+  <si>
+    <t>-1.694 ± 3.206</t>
+  </si>
+  <si>
+    <t>-28.786 ± 8.828</t>
+  </si>
+  <si>
+    <t>-4.403 ± 4.335</t>
+  </si>
+  <si>
+    <t>0.000 ± 0.000</t>
+  </si>
+  <si>
+    <t>91.915 ± 2.907</t>
+  </si>
+  <si>
+    <t>6.429 ± 5.538</t>
+  </si>
+  <si>
+    <t>1.969 ± 6.581</t>
+  </si>
+  <si>
+    <t>2.022 ± 5.494</t>
+  </si>
+  <si>
+    <t>1.980 ± 6.757</t>
+  </si>
+  <si>
+    <t>2.853 ± 5.976</t>
+  </si>
+  <si>
+    <t>-1.995 ± 9.176</t>
+  </si>
+  <si>
+    <t>-2.412 ± 6.549</t>
+  </si>
+  <si>
+    <t>-0.279 ± 5.543</t>
+  </si>
+  <si>
+    <t>-0.832 ± 6.521</t>
+  </si>
+  <si>
+    <t>1.368 ± 4.603</t>
+  </si>
+  <si>
+    <t>-10.147 ± 10.727</t>
+  </si>
+  <si>
+    <t>-12.801 ± 9.885</t>
+  </si>
+  <si>
+    <t>2.045 ± 6.120</t>
+  </si>
+  <si>
+    <t>74.229 ± 5.469</t>
+  </si>
+  <si>
+    <t>9.410 ± 5.495</t>
+  </si>
+  <si>
+    <t>2.675 ± 4.978</t>
+  </si>
+  <si>
+    <t>1.803 ± 5.703</t>
+  </si>
+  <si>
+    <t>2.009 ± 5.830</t>
+  </si>
+  <si>
+    <t>1.278 ± 5.199</t>
+  </si>
+  <si>
+    <t>-4.486 ± 9.553</t>
+  </si>
+  <si>
+    <t>-7.974 ± 10.706</t>
+  </si>
+  <si>
+    <t>-4.433 ± 10.530</t>
+  </si>
+  <si>
+    <t>-0.384 ± 3.544</t>
+  </si>
+  <si>
+    <t>0.475 ± 3.028</t>
+  </si>
+  <si>
+    <t>-11.453 ± 9.784</t>
+  </si>
+  <si>
     <t>nan ± nan</t>
+  </si>
+  <si>
+    <t>70.918 ± 5.509</t>
   </si>
   <si>
     <t>unlabel_set</t>
@@ -422,20 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D15"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -454,13 +589,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -468,13 +603,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -482,13 +617,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -496,13 +631,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -510,13 +645,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -524,13 +659,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -538,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -552,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -566,13 +701,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -580,27 +715,27 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>100</v>
-      </c>
-      <c r="D14">
-        <v>100</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -608,13 +743,69 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>100</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
